--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2039.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2039.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.153312235257931</v>
+        <v>1.249960064888</v>
       </c>
       <c r="B1">
-        <v>2.363461000428303</v>
+        <v>2.038832426071167</v>
       </c>
       <c r="C1">
-        <v>6.125405937454299</v>
+        <v>5.871021747589111</v>
       </c>
       <c r="D1">
-        <v>2.394091222657903</v>
+        <v>1.956021070480347</v>
       </c>
       <c r="E1">
-        <v>1.218020394284321</v>
+        <v>1.13567328453064</v>
       </c>
     </row>
   </sheetData>
